--- a/province_by_curerate.xlsx
+++ b/province_by_curerate.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,50 +399,60 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>econNum</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>susNum</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>deathNum</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cureNum</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>adddaily.conadd</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>adddaily.deathadd</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>adddaily.cureadd</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>adddaily.econadd</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>adddaily.conadd_n</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>adddaily.deathadd_n</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>adddaily.cureadd_n</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>cureRate</t>
         </is>
@@ -468,8 +478,10 @@
       <c r="E2" t="n">
         <v>18</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
@@ -477,17 +489,17 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>18</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>+0</t>
@@ -495,19 +507,25 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -531,8 +549,10 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
@@ -540,17 +560,17 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>+0</t>
@@ -561,16 +581,22 @@
           <t>+0</t>
         </is>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -580,61 +606,73 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gansu</t>
+          <t>ningxia</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>91</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J4" t="n">
-        <v>76</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>69</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8351648351648352</v>
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9452054794520548</v>
       </c>
     </row>
     <row r="5">
@@ -643,39 +681,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hunan</t>
+          <t>henan</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="E5" t="n">
-        <v>1013</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+        <v>1272</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J5" t="n">
-        <v>692</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1170</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -684,20 +724,30 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>+54</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>+67</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-68</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6831194471865746</v>
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>67</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.9198113207547169</v>
       </c>
     </row>
     <row r="6">
@@ -706,61 +756,73 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>shanghai</t>
+          <t>yunnan</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>335</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+        <v>174</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J6" t="n">
-        <v>227</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>157</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>+28</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6776119402985075</v>
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.9022988505747126</v>
       </c>
     </row>
     <row r="7">
@@ -769,39 +831,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ningxia</t>
+          <t>gansu</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>71</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J7" t="n">
-        <v>48</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>82</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -810,20 +874,30 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.676056338028169</v>
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.9010989010989011</v>
       </c>
     </row>
     <row r="8">
@@ -841,52 +915,64 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>309</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+        <v>318</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v>6</v>
       </c>
-      <c r="J8" t="n">
-        <v>203</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="K8" t="n">
+        <v>281</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>+33</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.656957928802589</v>
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.8836477987421384</v>
       </c>
     </row>
     <row r="9">
@@ -895,39 +981,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>henan</t>
+          <t>anhui</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>422</v>
+        <v>116</v>
       </c>
       <c r="E9" t="n">
-        <v>1270</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+        <v>990</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>19</v>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J9" t="n">
-        <v>829</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>868</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -936,20 +1024,30 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>+112</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>+54</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-54</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6527559055118111</v>
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>54</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.8767676767676768</v>
       </c>
     </row>
     <row r="10">
@@ -958,39 +1056,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>jiangsu</t>
+          <t>hainan</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>631</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J10" t="n">
-        <v>401</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>147</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -999,20 +1099,30 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>+49</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>+15</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6354992076069731</v>
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>15</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="11">
@@ -1021,39 +1131,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>hainan</t>
+          <t>jiangxi</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="E11" t="n">
-        <v>168</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
+        <v>935</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>4</v>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="J11" t="n">
-        <v>104</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>811</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1062,20 +1174,30 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>+15</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>+21</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-21</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6190476190476191</v>
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>21</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.8673796791443851</v>
       </c>
     </row>
     <row r="12">
@@ -1084,39 +1206,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>guizhou</t>
+          <t>shanghai</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E12" t="n">
-        <v>146</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
+        <v>337</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="J12" t="n">
-        <v>90</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>287</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1125,20 +1249,30 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>+14</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6164383561643836</v>
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>11</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.8516320474777448</v>
       </c>
     </row>
     <row r="13">
@@ -1147,39 +1281,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>yunnan</t>
+          <t>shanxi</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
-        <v>174</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J13" t="n">
-        <v>107</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>113</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1188,20 +1324,30 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>+28</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6149425287356322</v>
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.8496240601503759</v>
       </c>
     </row>
     <row r="14">
@@ -1219,30 +1365,32 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
         <v>245</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>149</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="K14" t="n">
+        <v>207</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1251,20 +1399,30 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>+32</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6081632653061224</v>
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>10</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.8448979591836735</v>
       </c>
     </row>
     <row r="15">
@@ -1273,39 +1431,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>anhui</t>
+          <t>zhejiang</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>386</v>
+        <v>188</v>
       </c>
       <c r="E15" t="n">
-        <v>989</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+        <v>1205</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>6</v>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J15" t="n">
-        <v>597</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1016</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1314,20 +1474,30 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>+97</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>+73</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>-73</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6036400404448938</v>
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>73</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.8431535269709544</v>
       </c>
     </row>
     <row r="16">
@@ -1336,43 +1506,45 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>澳门</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>aomen</t>
+          <t>hunan</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
+        <v>1018</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>844</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1380,17 +1552,27 @@
           <t>+0</t>
         </is>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>+24</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>24</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.8290766208251473</v>
       </c>
     </row>
     <row r="17">
@@ -1399,39 +1581,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>shanxi</t>
+          <t>jiangsu</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="E17" t="n">
-        <v>132</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
+        <v>631</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J17" t="n">
-        <v>79</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>523</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1440,20 +1624,30 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>+17</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5984848484848485</v>
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>17</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.8288431061806656</v>
       </c>
     </row>
     <row r="18">
@@ -1462,39 +1656,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>zhejiang</t>
+          <t>fujian</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>485</v>
+        <v>53</v>
       </c>
       <c r="E18" t="n">
-        <v>1205</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+        <v>296</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>719</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="K18" t="n">
+        <v>242</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1503,20 +1699,30 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>+72</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5966804979253112</v>
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>10</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.8175675675675675</v>
       </c>
     </row>
     <row r="19">
@@ -1525,39 +1731,41 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>jiangxi</t>
+          <t>xinjiang</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>378</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>934</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J19" t="n">
-        <v>555</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>62</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1566,20 +1774,30 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>+66</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>+19</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>-19</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.5942184154175589</v>
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>19</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.8157894736842105</v>
       </c>
     </row>
     <row r="20">
@@ -1597,30 +1815,32 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E20" t="n">
-        <v>91</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>52</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="K20" t="n">
+        <v>75</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1629,20 +1849,30 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.5714285714285714</v>
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="21">
@@ -1651,39 +1881,41 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>fujian</t>
+          <t>tianjin</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="E21" t="n">
-        <v>293</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J21" t="n">
-        <v>162</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>109</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1692,20 +1924,30 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>+28</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.552901023890785</v>
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.8014705882352942</v>
       </c>
     </row>
     <row r="22">
@@ -1714,39 +1956,41 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>澳门</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>chongqing</t>
+          <t>aomen</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>572</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>6</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J22" t="n">
-        <v>316</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1755,20 +1999,30 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>+17</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5524475524475524</v>
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="23">
@@ -1786,30 +2040,32 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E23" t="n">
         <v>121</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
-        <v>66</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="K23" t="n">
+        <v>95</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1818,20 +2074,30 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.5454545454545454</v>
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.7851239669421488</v>
       </c>
     </row>
     <row r="24">
@@ -1840,39 +2106,41 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>guangdong</t>
+          <t>guizhou</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>606</v>
+        <v>32</v>
       </c>
       <c r="E24" t="n">
-        <v>1339</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+        <v>146</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>5</v>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J24" t="n">
-        <v>728</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>112</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1881,20 +2149,30 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>+64</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>6</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.5436893203883495</v>
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.7671232876712328</v>
       </c>
     </row>
     <row r="25">
@@ -1903,39 +2181,41 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>tianjin</t>
+          <t>chongqing</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="E25" t="n">
-        <v>135</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
+        <v>576</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J25" t="n">
-        <v>65</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>422</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1944,20 +2224,30 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>4</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>+21</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>-21</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4814814814814815</v>
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>21</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.7326388888888888</v>
       </c>
     </row>
     <row r="26">
@@ -1966,61 +2256,73 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>sichuan</t>
+          <t>guangdong</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>273</v>
+        <v>366</v>
       </c>
       <c r="E26" t="n">
-        <v>526</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
+        <v>1349</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>3</v>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J26" t="n">
-        <v>250</v>
-      </c>
-      <c r="K26" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>976</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>+28</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>+57</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>-56</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
         <v>1</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>28</v>
-      </c>
       <c r="Q26" t="n">
-        <v>0.4752851711026616</v>
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>57</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.7234988880652335</v>
       </c>
     </row>
     <row r="27">
@@ -2029,39 +2331,41 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>beijing</t>
+          <t>guangxi</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="E27" t="n">
-        <v>399</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
+        <v>252</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>4</v>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J27" t="n">
-        <v>178</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>176</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2070,20 +2374,30 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>3</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.4461152882205514</v>
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>10</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.6984126984126984</v>
       </c>
     </row>
     <row r="28">
@@ -2092,61 +2406,73 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>heilongjiang</t>
+          <t>beijing</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="E28" t="n">
-        <v>479</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
+        <v>411</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J28" t="n">
-        <v>204</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="K28" t="n">
+        <v>271</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>+63</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>+14</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4258872651356994</v>
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>14</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.6593673965936739</v>
       </c>
     </row>
     <row r="29">
@@ -2155,39 +2481,41 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>guangxi</t>
+          <t>neimenggu</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="E29" t="n">
-        <v>249</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
+        <v>75</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>2</v>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J29" t="n">
-        <v>104</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>49</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2196,20 +2524,30 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>3</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.4176706827309237</v>
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.6533333333333333</v>
       </c>
     </row>
     <row r="30">
@@ -2218,39 +2556,41 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>shandong</t>
+          <t>sichuan</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>444</v>
+        <v>184</v>
       </c>
       <c r="E30" t="n">
-        <v>750</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
+        <v>538</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>4</v>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J30" t="n">
-        <v>302</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>351</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2259,20 +2599,30 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>+32</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>2</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>+25</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.4026666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>25</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6524163568773235</v>
       </c>
     </row>
     <row r="31">
@@ -2281,61 +2631,73 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>xinjiang</t>
+          <t>heilongjiang</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="E31" t="n">
-        <v>76</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
+        <v>480</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J31" t="n">
-        <v>25</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="K31" t="n">
+        <v>301</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>+21</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>-21</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.3289473684210527</v>
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>21</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.6270833333333333</v>
       </c>
     </row>
     <row r="32">
@@ -2344,39 +2706,41 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>neimenggu</t>
+          <t>shandong</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>52</v>
+        <v>332</v>
       </c>
       <c r="E32" t="n">
-        <v>75</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
+        <v>756</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J32" t="n">
-        <v>23</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="K32" t="n">
+        <v>418</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2385,20 +2749,30 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>+28</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>-28</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3066666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>28</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5529100529100529</v>
       </c>
     </row>
     <row r="33">
@@ -2416,52 +2790,64 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>47514</v>
+        <v>34596</v>
       </c>
       <c r="E33" t="n">
-        <v>63454</v>
-      </c>
-      <c r="F33" t="n">
-        <v>366</v>
+        <v>66337</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>2250</v>
+          <t>34596</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J33" t="n">
-        <v>13690</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>+366</t>
-        </is>
+        <v>2727</v>
+      </c>
+      <c r="K33" t="n">
+        <v>29014</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>+106</t>
+          <t>+423</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>+1902</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>366</v>
-      </c>
-      <c r="O33" t="n">
-        <v>106</v>
+          <t>+45</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>+2611</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>-2233</t>
+        </is>
       </c>
       <c r="P33" t="n">
-        <v>1902</v>
+        <v>423</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.2157468402307183</v>
+        <v>45</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2611</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.4373728085382215</v>
       </c>
     </row>
     <row r="34">
@@ -2479,52 +2865,64 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E34" t="n">
-        <v>69</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
         <v>2</v>
       </c>
-      <c r="J34" t="n">
-        <v>10</v>
-      </c>
-      <c r="K34" t="inlineStr">
+      <c r="K34" t="n">
+        <v>30</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>+4</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
         <v>1</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
       <c r="Q34" t="n">
-        <v>0.1449275362318841</v>
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.3191489361702128</v>
       </c>
     </row>
     <row r="35">
@@ -2542,34 +2940,36 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E35" t="n">
-        <v>26</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="n">
-        <v>2</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="K35" t="n">
+        <v>9</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>+7</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2577,17 +2977,27 @@
           <t>+0</t>
         </is>
       </c>
-      <c r="N35" t="n">
-        <v>2</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>+3</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>+4</t>
+        </is>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.2307692307692308</v>
       </c>
     </row>
   </sheetData>

--- a/province_by_curerate.xlsx
+++ b/province_by_curerate.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,40 +419,45 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>jwsr</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>adddaily.conadd</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>adddaily.deathadd</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>adddaily.cureadd</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>adddaily.econadd</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>adddaily.conadd_n</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>adddaily.deathadd_n</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>adddaily.cureadd_n</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>cureRate</t>
         </is>
@@ -464,19 +469,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>青海</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>qinghai</t>
+          <t>shanxi</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -498,13 +503,9 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>18</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>+0</t>
@@ -515,9 +516,15 @@
           <t>+0</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
-        <v>0</v>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -526,6 +533,9 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -535,19 +545,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>西藏</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>xizang</t>
+          <t>jiangsu</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>631</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -569,34 +579,39 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>631</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,29 +621,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>西藏</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ningxia</t>
+          <t>xizang</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -640,13 +655,9 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>69</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>+0</t>
@@ -654,7 +665,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -662,17 +673,22 @@
           <t>+0</t>
         </is>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.9452054794520548</v>
       </c>
     </row>
     <row r="5">
@@ -681,19 +697,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>青海</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>henan</t>
+          <t>qinghai</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1272</v>
+        <v>18</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -703,7 +719,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -712,42 +728,43 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1170</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>+67</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-68</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>67</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.9198113207547169</v>
       </c>
     </row>
     <row r="6">
@@ -756,19 +773,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>澳门</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>yunnan</t>
+          <t>aomen</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -778,7 +795,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -787,16 +804,12 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>157</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
           <t>+0</t>
@@ -804,25 +817,30 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>+7</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9022988505747126</v>
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -831,19 +849,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gansu</t>
+          <t>jiangxi</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>91</v>
+        <v>935</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -853,7 +871,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -862,16 +880,12 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>82</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>934</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
           <t>+0</t>
@@ -887,8 +901,10 @@
           <t>+0</t>
         </is>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -897,7 +913,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9010989010989011</v>
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.9989304812834224</v>
       </c>
     </row>
     <row r="8">
@@ -906,19 +925,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>hebei</t>
+          <t>fujian</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -928,7 +947,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -937,16 +956,12 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>281</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
           <t>+0</t>
@@ -954,25 +969,30 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>+7</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8836477987421384</v>
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.9966216216216216</v>
       </c>
     </row>
     <row r="9">
@@ -981,19 +1001,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>anhui</t>
+          <t>hunan</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>990</v>
+        <v>1018</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1003,7 +1023,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1012,16 +1032,12 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>868</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>1014</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1029,25 +1045,30 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>+54</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-54</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
+          <t>+5</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8767676767676768</v>
+        <v>5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.9960707269155207</v>
       </c>
     </row>
     <row r="10">
@@ -1056,19 +1077,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>hainan</t>
+          <t>anhui</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168</v>
+        <v>990</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1078,7 +1099,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1087,16 +1108,12 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>147</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>984</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1104,25 +1121,30 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>+15</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.875</v>
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.9939393939393939</v>
       </c>
     </row>
     <row r="11">
@@ -1131,19 +1153,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>jiangxi</t>
+          <t>chongqing</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>935</v>
+        <v>576</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1153,25 +1175,21 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>811</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1179,25 +1197,30 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>+21</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
+          <t>+4</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8673796791443851</v>
+        <v>4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.9895833333333334</v>
       </c>
     </row>
     <row r="12">
@@ -1206,19 +1229,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>shanghai</t>
+          <t>yunnan</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>337</v>
+        <v>174</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1228,25 +1251,21 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>287</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1254,25 +1273,30 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8516320474777448</v>
+        <v>2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.9885057471264368</v>
       </c>
     </row>
     <row r="13">
@@ -1281,29 +1305,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>shanxi</t>
+          <t>zhejiang</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="n">
-        <v>133</v>
+        <v>1231</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1312,42 +1336,47 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>113</v>
+        <v>1211</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>含境外输入</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>+4</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>+6</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>+4</t>
+        </is>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8496240601503759</v>
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.983753046303818</v>
       </c>
     </row>
     <row r="14">
@@ -1356,29 +1385,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>shanxis</t>
+          <t>henan</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>245</v>
+        <v>1273</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1387,42 +1420,47 @@
         </is>
       </c>
       <c r="J14" t="n">
+        <v>22</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1250</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>含境外输入</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>207</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>10</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.8448979591836735</v>
+      <c r="T14" t="n">
+        <v>0.9819324430479183</v>
       </c>
     </row>
     <row r="15">
@@ -1431,19 +1469,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>zhejiang</t>
+          <t>guizhou</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1205</v>
+        <v>146</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1453,7 +1491,7 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1462,16 +1500,12 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>1016</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1479,25 +1513,30 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>+73</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-73</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8431535269709544</v>
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.9794520547945206</v>
       </c>
     </row>
     <row r="16">
@@ -1506,29 +1545,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>hunan</t>
+          <t>jilin</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1018</v>
+        <v>93</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1537,16 +1576,12 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>844</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1554,25 +1589,30 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>+24</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8290766208251473</v>
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.978494623655914</v>
       </c>
     </row>
     <row r="17">
@@ -1581,19 +1621,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>jiangsu</t>
+          <t>shandong</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>631</v>
+        <v>760</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1603,7 +1643,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1612,14 +1652,14 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>523</v>
+        <v>741</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>含境外输入</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1629,25 +1669,30 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>+17</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8288431061806656</v>
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.975</v>
       </c>
     </row>
     <row r="18">
@@ -1656,19 +1701,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>fujian</t>
+          <t>hebei</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1678,7 +1723,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1687,16 +1732,12 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>242</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1704,25 +1745,30 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8175675675675675</v>
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.9748427672955975</v>
       </c>
     </row>
     <row r="19">
@@ -1731,19 +1777,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>xinjiang</t>
+          <t>ningxia</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1753,7 +1799,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1762,16 +1808,12 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1779,25 +1821,30 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>+19</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8157894736842105</v>
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.9733333333333334</v>
       </c>
     </row>
     <row r="20">
@@ -1806,19 +1853,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>jilin</t>
+          <t>tianjin</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1828,7 +1875,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1837,16 +1884,12 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>75</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1854,25 +1897,30 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>+7</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8064516129032258</v>
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.9705882352941176</v>
       </c>
     </row>
     <row r="21">
@@ -1881,19 +1929,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>tianjin</t>
+          <t>guangxi</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1903,7 +1951,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1912,16 +1960,12 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>109</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>+0</t>
@@ -1929,25 +1973,30 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>+7</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8014705882352942</v>
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.9642857142857143</v>
       </c>
     </row>
     <row r="22">
@@ -1956,19 +2005,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>澳门</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>aomen</t>
+          <t>xinjiang</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1978,7 +2027,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1987,16 +2036,12 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2012,8 +2057,10 @@
           <t>+0</t>
         </is>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2022,7 +2069,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8</v>
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.9605263157894737</v>
       </c>
     </row>
     <row r="23">
@@ -2031,73 +2081,74 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>liaoning</t>
+          <t>guangdong</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E23" t="n">
-        <v>121</v>
+        <v>1357</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J23" t="n">
+        <v>8</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1303</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>+4</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="K23" t="n">
-        <v>95</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.7851239669421488</v>
+        <v>4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.9602063375092115</v>
       </c>
     </row>
     <row r="24">
@@ -2106,19 +2157,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>guizhou</t>
+          <t>sichuan</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E24" t="n">
-        <v>146</v>
+        <v>539</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2128,7 +2179,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2137,16 +2188,12 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>112</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2159,11 +2206,13 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
+          <t>+5</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2172,7 +2221,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.7671232876712328</v>
+        <v>5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.9554730983302412</v>
       </c>
     </row>
     <row r="25">
@@ -2181,19 +2233,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>chongqing</t>
+          <t>hainan</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>576</v>
+        <v>168</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2203,7 +2255,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2215,13 +2267,9 @@
         <v>6</v>
       </c>
       <c r="K25" t="n">
-        <v>422</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2229,25 +2277,30 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>+21</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7326388888888888</v>
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="26">
@@ -2256,29 +2309,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>guangdong</t>
+          <t>shanxis</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>366</v>
+        <v>11</v>
       </c>
       <c r="E26" t="n">
-        <v>1349</v>
+        <v>245</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2287,16 +2340,12 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>976</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2304,25 +2353,30 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>+57</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>-56</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0.7234988880652335</v>
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.9469387755102041</v>
       </c>
     </row>
     <row r="27">
@@ -2331,19 +2385,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>guangxi</t>
+          <t>neimenggu</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2353,7 +2407,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2362,16 +2416,12 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>176</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2379,25 +2429,30 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0.6984126984126984</v>
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.9466666666666667</v>
       </c>
     </row>
     <row r="28">
@@ -2406,29 +2461,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>beijing</t>
+          <t>heilongjiang</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="E28" t="n">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2437,42 +2492,43 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K28" t="n">
-        <v>271</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>+14</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>1</v>
+          <t>+6</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.6593673965936739</v>
+        <v>6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.9398340248962656</v>
       </c>
     </row>
     <row r="29">
@@ -2481,23 +2537,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>neimenggu</t>
+          <t>shanghai</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>26</v>
       </c>
       <c r="E29" t="n">
-        <v>75</v>
+        <v>353</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2508,46 +2564,51 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>49</v>
+        <v>324</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>含境外输入</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>+3</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>+6</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>+3</t>
+        </is>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.6533333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.9178470254957507</v>
       </c>
     </row>
     <row r="30">
@@ -2556,19 +2617,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sichuan</t>
+          <t>liaoning</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>538</v>
+        <v>125</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2578,7 +2639,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2587,16 +2648,12 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>351</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
           <t>+0</t>
@@ -2604,25 +2661,30 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>+25</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.6524163568773235</v>
+        <v>1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.912</v>
       </c>
     </row>
     <row r="31">
@@ -2631,29 +2693,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>heilongjiang</t>
+          <t>hubei</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>166</v>
+        <v>10431</v>
       </c>
       <c r="E31" t="n">
-        <v>480</v>
+        <v>67794</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>10431</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2662,42 +2724,43 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>13</v>
+        <v>3085</v>
       </c>
       <c r="K31" t="n">
-        <v>301</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
+        <v>54278</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>+4</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>+21</t>
+          <t>+10</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
+          <t>+1335</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-1341</t>
+        </is>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R31" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="S31" t="n">
-        <v>0.6270833333333333</v>
+        <v>1335</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.8006313243059858</v>
       </c>
     </row>
     <row r="32">
@@ -2706,73 +2769,78 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>shandong</t>
+          <t>beijing</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="E32" t="n">
-        <v>756</v>
+        <v>442</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>81</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K32" t="n">
-        <v>418</v>
+        <v>353</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>含境外输入</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>+5</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>+28</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>-28</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
+          <t>+4</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.5529100529100529</v>
+        <v>4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.7986425339366516</v>
       </c>
     </row>
     <row r="33">
@@ -2781,29 +2849,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>hubei</t>
+          <t>gansu</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>34596</v>
+        <v>39</v>
       </c>
       <c r="E33" t="n">
-        <v>66337</v>
+        <v>132</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>34596</t>
+          <t>39</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2812,42 +2880,47 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>2727</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>29014</v>
+        <v>91</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>+423</t>
+          <t>含境外输入</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>+45</t>
+          <t>+3</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>+2611</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>-2233</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>423</v>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
       </c>
       <c r="Q33" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>2611</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0.4373728085382215</v>
+        <v>2</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.6893939393939394</v>
       </c>
     </row>
     <row r="34">
@@ -2865,64 +2938,65 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E34" t="n">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>56</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>30</v>
-      </c>
-      <c r="L34" t="inlineStr">
+        <v>81</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>+4</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>+3</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0.3191489361702128</v>
+        <v>3</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.574468085106383</v>
       </c>
     </row>
     <row r="35">
@@ -2940,20 +3014,20 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E35" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2965,39 +3039,40 @@
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>9</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>+3</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
           <t>+3</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>7</v>
-      </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.2307692307692308</v>
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.3773584905660378</v>
       </c>
     </row>
   </sheetData>
